--- a/1. XLOOKUP vs VLOOKUP.xlsx
+++ b/1. XLOOKUP vs VLOOKUP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\Excel_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD385A99-EB4B-4CA1-B490-C25C5E0C4FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D55458-463E-4305-AD24-F2521C9857AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F6C3BED0-C82E-45BB-ABFD-C78213AEFE49}"/>
   </bookViews>
@@ -127,13 +127,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -348,8 +348,8 @@
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -367,7 +367,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19050" y="3590925"/>
-          <a:ext cx="2295525" cy="295275"/>
+          <a:ext cx="3114675" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -399,7 +399,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>=VLOOKUP("P103",Table1,3,FALSE)</a:t>
+            <a:t>=XLOOKUP("P103",Table1[Product Id],Table1[Price])</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -744,16 +744,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -768,7 +768,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11049000" y="3209924"/>
+          <a:off x="10439400" y="3219449"/>
           <a:ext cx="619125" cy="247651"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1145,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8652010D-39C1-4C27-B406-A4BACF1521F3}">
-  <dimension ref="A11:Q20"/>
+  <dimension ref="A11:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,18 +1245,18 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
-    <row r="20" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="E20" s="3">
-        <f>VLOOKUP("P103",Table1[],3,FALSE)</f>
+    <row r="20" spans="1:16" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="E20" s="1">
+        <f>_xlfn.XLOOKUP("P103",Table1[Product Id],Table1[Price])</f>
         <v>1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="P20" s="1">
         <f>VLOOKUP("P103",Table1[],3,FALSE)</f>
         <v>1200</v>
       </c>

--- a/1. XLOOKUP vs VLOOKUP.xlsx
+++ b/1. XLOOKUP vs VLOOKUP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D55458-463E-4305-AD24-F2521C9857AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08D34800-B6EB-4C8A-BDDE-F76874CE5C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F6C3BED0-C82E-45BB-ABFD-C78213AEFE49}"/>
   </bookViews>
@@ -343,13 +343,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>19051</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>28576</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -366,8 +366,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19050" y="3590925"/>
-          <a:ext cx="3114675" cy="295275"/>
+          <a:off x="19051" y="3609975"/>
+          <a:ext cx="3086100" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -547,7 +547,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -563,7 +563,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3057525" y="3209924"/>
-          <a:ext cx="619125" cy="276225"/>
+          <a:ext cx="619125" cy="247651"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -744,16 +744,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -768,7 +768,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10439400" y="3219449"/>
+          <a:off x="10448925" y="3209924"/>
           <a:ext cx="619125" cy="247651"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8652010D-39C1-4C27-B406-A4BACF1521F3}">
   <dimension ref="A11:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
